--- a/docs/PTA2_DDC_80/PTA2_DDC_80_13.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_13.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731778144.3737888</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731778144.4677708</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778144.3737888.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778144.4677708.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.01</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>280.53</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5199999999999818</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731778144.6164844</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731778147.0612233</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778144.6164844.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778147.0612233.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>280.98</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>281.01</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.02999999999997272</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731778147.0751598</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731778147.191491</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778147.0751598.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778147.191491.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>281.01</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>280.66</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.3499999999999659</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731778149.1701136</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731778150.0034287</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778149.1701136.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778150.0034287.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>279.8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>280.06</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731778150.8133714</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731778153.0436828</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778150.8133714.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778153.0436828.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>280.46</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>280.39</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -799,95 +845,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731778153.0813317</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731778153.0813317.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731778153.0813317.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>280.61</v>
       </c>
-      <c r="J8" t="n">
-        <v>280.61</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>282.9</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2.289999999999964</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731778157.9891992</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731778158.0729754</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778157.9891992.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778158.0729754.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>280.01</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>280.53</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5199999999999818</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731778158.205648</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731778160.363178</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778158.205648.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778160.363178.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>280.98</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>281.01</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.02999999999997272</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731778160.3791337</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731778160.4708893</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778160.3791337.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778160.4708893.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>281.01</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>280.66</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.3499999999999659</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731778162.2052228</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731778162.9333022</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778162.2052228.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778162.9333022.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>279.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>280.06</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731778163.652382</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731778165.40722</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778163.652382.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778165.40722.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>280.46</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>280.39</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731778165.4461153</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731778168.875147</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778165.4461153.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778168.875147.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>280.61</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>281.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.8899999999999864</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731778170.225249</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731778172.9608314</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778170.225249.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778172.9608314.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>281.95</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>281.71</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731778173.0608728</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731778176.2765799</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778173.0608728.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778176.2765799.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>281.53</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>281.19</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.339999999999975</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731778177.620847</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731778179.0552182</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778177.620847.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778179.0552182.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>281.69</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>281.34</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.3500000000000227</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1311,95 +1417,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731778180.4748235</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731778180.4748235.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731778180.4748235.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>281.95</v>
       </c>
-      <c r="J18" t="n">
-        <v>281.95</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>283.49</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-1.54000000000002</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731778185.3306568</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731778187.6075087</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778185.3306568.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778187.6075087.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.93</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.88</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731778192.3202825</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731778193.7734473</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778192.3202825.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778193.7734473.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>130.17</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>129.93</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731778195.6991975</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731778196.0271478</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778195.6991975.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778196.0271478.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>130.51</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>130.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1511,95 +1641,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731778196.526176</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731778196.526176.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731778196.526176.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.94</v>
       </c>
-      <c r="J22" t="n">
-        <v>129.94</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>129.99</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731778197.8451724</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731778199.3345997</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778197.8451724.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778199.3345997.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6437</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6438.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731778200.6473007</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731778202.22786</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778200.6473007.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778202.22786.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6447.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6434.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>13</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731778204.491218</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731778205.5433073</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778204.491218.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778205.5433073.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6421</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6429.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>8.5</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731778206.83751</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731778208.767549</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778206.83751.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778208.767549.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6435.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6433</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.5</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731778209.0722964</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731778211.3133056</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778209.0722964.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778211.3133056.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6442.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6442</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.5</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731778214.7653842</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731778217.1951265</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778214.7653842.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778217.1951265.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>502.95</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>502.95</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731778219.2077558</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731778220.0880883</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778219.2077558.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778220.0880883.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>502.45</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>502.85</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.4000000000000341</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731778221.6583695</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731778222.395014</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778221.6583695.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778222.395014.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>503.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>502.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731778223.4336896</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731778223.663628</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778223.4336896.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778223.663628.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>502.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>503</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731778224.0167613</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731778224.9083672</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778224.0167613.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778224.9083672.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>503.9</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>503</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731778224.923354</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731778224.9637973</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778224.923354.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778224.9637973.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>503</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>503.3</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731778228.010633</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731778230.997937</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778228.010633.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778230.997937.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>227.17</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>227.24</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.0700000000000216</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731778232.919195</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731778235.4970922</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778232.919195.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778235.4970922.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>226.55</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>226.33</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731778237.0677717</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731778237.9647243</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778237.0677717.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778237.9647243.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>225.75</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>226.14</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.3899999999999864</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2283,95 +2503,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731778238.5796323</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731778238.5796323.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731778238.5796323.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>226.48</v>
       </c>
-      <c r="J37" t="n">
-        <v>226.48</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>226.9</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.4200000000000159</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731778241.73616</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731778243.677787</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778241.73616.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778243.677787.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1033</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1036.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731778244.4379194</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731778247.7053115</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778244.4379194.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778247.7053115.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1040.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1043.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-3.599999999999909</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731778248.1465318</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731778248.859731</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778248.1465318.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778248.859731.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1038.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1043.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731778249.9180388</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731778252.6493807</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778249.9180388.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778252.6493807.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1046.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1052.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-6</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731778256.5249941</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731778260.581256</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778256.5249941.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778260.581256.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>12.119</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>12.178</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.05900000000000105</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731778261.1795728</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731778262.6842358</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778261.1795728.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778262.6842358.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>12.157</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>12.166</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.009000000000000341</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731778263.7529154</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731778265.5608234</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778263.7529154.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778265.5608234.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>12.183</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>12.154</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.02899999999999991</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731778265.6370006</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731778265.6778984</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778265.6370006.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778265.6778984.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>12.166</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>12.168</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731778266.3865225</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731778266.6522243</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778266.3865225.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778266.6522243.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>12.139</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>12.164</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.02500000000000036</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2795,51 +3075,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731778267.831022</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731778269.6514707</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778267.831022.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778269.6514707.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>12.184</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>12.163</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.02099999999999902</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2847,51 +3133,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731778272.7985396</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731778279.8965657</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778272.7985396.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778279.8965657.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>126.34</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>128.88</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-2.539999999999992</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-2.01</v>
       </c>
     </row>
@@ -2899,51 +3191,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731778281.1795478</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731778281.249003</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778281.1795478.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778281.249003.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>128.66</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>128.96</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2951,95 +3249,107 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731778283.689051</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731778283.689051.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731778283.689051.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>128.52</v>
       </c>
-      <c r="J50" t="n">
-        <v>128.52</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.5200000000000102</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731778286.8661823</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731778290.51739</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778286.8661823.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778290.51739.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>163.68</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>164.98</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-1.299999999999983</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.79</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731778291.455094</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731778291.7296543</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778291.455094.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778291.7296543.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>165.2</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>165.02</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731778291.8297734</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731778293.403141</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778291.8297734.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778293.403141.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>164.88</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>164.92</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731778294.0347905</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731778297.994505</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778294.0347905.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778297.994505.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>165.32</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>165.26</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3203,95 +3531,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731778298.1231077</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731778298.1231077.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731778298.1231077.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>165.1</v>
       </c>
-      <c r="J55" t="n">
-        <v>165.1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>164.72</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.3799999999999955</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731778302.1926155</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731778304.2320418</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778302.1926155.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778304.2320418.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>50.385</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>50.28</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1049999999999969</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3299,51 +3639,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731778306.072422</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731778308.4397845</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778306.072422.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778308.4397845.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>50.18</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>50.16</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3351,51 +3697,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731778309.9942255</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731778311.6368902</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778309.9942255.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778311.6368902.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>50.17</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>50.155</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3403,51 +3755,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731778311.8812087</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731778312.0723069</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778311.8812087.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778312.0723069.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>50.21</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>50.15</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3455,95 +3813,107 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731778312.252844</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731778312.252844.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731778312.252844.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>50.12</v>
       </c>
-      <c r="J60" t="n">
-        <v>50.12</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>50.055</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.06499999999999773</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731778317.3127413</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731778318.0557954</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778317.3127413.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778318.0557954.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1400</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1402.4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3551,51 +3921,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731778318.9322915</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731778322.6207051</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778318.9322915.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778322.6207051.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1400</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1397.8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3603,51 +3979,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731778323.772864</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731778324.9721787</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778323.772864.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778324.9721787.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1401.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1397.4</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>4</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3655,51 +4037,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731778326.5983467</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731778327.0513654</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778326.5983467.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778327.0513654.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1402.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1400</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3707,95 +4095,107 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731778327.24348</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731778327.24348.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731778327.24348.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1397</v>
       </c>
-      <c r="J65" t="n">
-        <v>1397</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1397.8</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731778329.7812917</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731778330.6091957</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778329.7812917.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778330.6091957.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>59.89</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>59.77</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3803,51 +4203,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731778332.2774692</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731778332.5819664</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778332.2774692.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778332.5819664.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>59.57</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>59.78</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3855,51 +4261,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731778332.8679712</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731778335.5076444</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778332.8679712.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778335.5076444.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>59.94</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>59.91</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3907,51 +4319,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731778335.794064</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731778336.7731578</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778335.794064.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778336.7731578.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>59.82</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>59.89</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3959,51 +4377,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731778338.4937117</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731778339.3226757</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778338.4937117.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778339.3226757.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>59.96</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>59.81</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4011,51 +4435,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731778340.1809287</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731778341.3157837</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778340.1809287.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778341.3157837.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>59.71</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>59.86</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4063,95 +4493,107 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731778342.6626546</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731778342.6626546.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731778342.6626546.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>59.69</v>
       </c>
-      <c r="J72" t="n">
-        <v>59.69</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>59.57</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.1199999999999974</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731778344.4500911</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731778345.3084705</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778344.4500911.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778345.3084705.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>99.25</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>98.92</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -4159,51 +4601,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731778347.5423841</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731778349.931092</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778347.5423841.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778349.931092.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>99.56</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>99.81</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -4211,51 +4659,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731778350.0490825</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731778350.863271</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778350.0490825.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778350.863271.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>99.67</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>99.61</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4263,51 +4717,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731778353.873744</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731778354.117328</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778353.873744.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778354.117328.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>99.73999999999999</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>99.67</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4315,51 +4775,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731778354.2810018</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731778357.656314</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778354.2810018.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778357.656314.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>99.87</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>100.26</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.3900000000000006</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -4367,43 +4833,49 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731778358.1290722</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731778358.1290722.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731778358.1290722.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>100.22</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>100.22</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4411,51 +4883,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731778358.749982</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731778359.9561074</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778358.749982.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778359.9561074.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>56</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>56.28</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4463,51 +4941,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731778362.255171</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731778364.2453136</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778362.255171.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778364.2453136.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>56.45</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>56.32</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4515,51 +4999,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731778366.5443945</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731778366.845669</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778366.5443945.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778366.845669.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>56.5</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>56.4</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -4567,51 +5057,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731778367.24507</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731778368.9873588</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778367.24507.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778368.9873588.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>56.55</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>56.61</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -4619,51 +5115,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731778372.5328746</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731778373.8777628</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778372.5328746.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778373.8777628.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>154.82</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>154.5</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4671,51 +5173,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731778374.7818027</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731778374.8599937</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778374.7818027.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778374.8599937.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>155</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>154.66</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4723,51 +5231,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731778374.9734943</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731778375.064246</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778374.9734943.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778375.064246.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>154.96</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>154.56</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4775,51 +5289,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731778375.3284476</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731778375.594766</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778375.3284476.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778375.594766.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>155.48</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>155.32</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4827,51 +5347,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731778377.6948166</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731778380.6491594</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778377.6948166.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778380.6491594.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>156.7</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>157.34</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.6400000000000148</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -4879,95 +5405,107 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731778381.2221215</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731778381.2221215.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731778381.2221215.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>156.24</v>
       </c>
-      <c r="J88" t="n">
-        <v>156.24</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>157.12</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.8799999999999955</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731778394.9886281</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731778395.5043151</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778394.9886281.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778395.5043151.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>20.544</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>20.36</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.1840000000000011</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.8999999999999999</v>
       </c>
     </row>
@@ -4975,51 +5513,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731778398.0195916</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731778399.3112893</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778398.0195916.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778399.3112893.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>20.53</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>20.505</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.02500000000000213</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -5027,51 +5571,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731778401.4289708</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731778403.4389699</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778401.4289708.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778403.4389699.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>20.483</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>20.552</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.06899999999999906</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -5079,51 +5629,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731778403.6524978</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731778406.035239</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778403.6524978.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778406.035239.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>20.56</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>20.529</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.03099999999999881</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -5131,51 +5687,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731778406.1915927</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731778406.5822182</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778406.1915927.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778406.5822182.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>20.494</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>20.531</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.03699999999999903</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -5183,51 +5745,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731778408.5254755</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731778409.289483</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778408.5254755.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778409.289483.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>20.568</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>20.534</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.03400000000000247</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5235,43 +5803,49 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731778410.5145469</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731778410.5145469.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731778410.5145469.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>20.476</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>20.476</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5279,51 +5853,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731778412.7812905</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731778414.919572</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778412.7812905.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778414.919572.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>690</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>687.8</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -5331,51 +5911,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731778415.8238747</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731778418.2695084</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778415.8238747.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778418.2695084.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>686.5</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>686.5</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5383,51 +5969,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731778418.5709991</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731778419.2248046</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778418.5709991.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778419.2248046.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>686.35</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>686.1</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.25</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5435,51 +6027,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731778419.6068335</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731778421.675837</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778419.6068335.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778421.675837.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>684.7</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>685.7</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -5487,95 +6085,107 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731778421.7464817</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731778421.7464817.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731778421.7464817.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>686.9</v>
       </c>
-      <c r="J100" t="n">
-        <v>686.9</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>686.45</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.4499999999999318</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731778423.6827464</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731778425.2136796</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778423.6827464.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778425.2136796.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>153.53</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>154.06</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -5583,51 +6193,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731778426.0048044</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731778429.998041</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778426.0048044.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778429.998041.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>154.83</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>156.27</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-1.439999999999998</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>-0.9299999999999999</v>
       </c>
     </row>
@@ -5635,51 +6251,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731778431.3683844</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731778431.7368863</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778431.3683844.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778431.7368863.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>156.16</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>156.37</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -5687,51 +6309,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731778434.254334</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731778435.4985838</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778434.254334.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778435.4985838.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>156.83</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>156.83</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>0</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5739,44 +6367,50 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731778436.8439732</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731778436.8439732.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731778436.8439732.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>156.08</v>
       </c>
-      <c r="J105" t="n">
-        <v>156.08</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>156.16</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -5837,19 +6471,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1699999999999022</v>
+        <v>-1.709999999999923</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01699999999999022</v>
+        <v>-0.1709999999999923</v>
       </c>
       <c r="E2" t="n">
+        <v>-0.6099999999999999</v>
+      </c>
+      <c r="F2" t="n">
         <v>-0.06</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.01</v>
       </c>
     </row>
     <row r="3">
@@ -5881,19 +6515,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7299999999999969</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1042857142857138</v>
+        <v>0.08714285714285706</v>
       </c>
       <c r="E4" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -5947,19 +6581,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5799999999999841</v>
+        <v>1.45999999999998</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09666666666666401</v>
+        <v>0.2433333333333299</v>
       </c>
       <c r="E7" t="n">
-        <v>0.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -5969,19 +6603,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4700000000000273</v>
+        <v>-1.819999999999936</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07833333333333788</v>
+        <v>-0.3033333333333227</v>
       </c>
       <c r="E8" t="n">
-        <v>0.17</v>
+        <v>-0.65</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="9">
@@ -6013,19 +6647,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.450000000000045</v>
+        <v>3.899999999999977</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6900000000000091</v>
+        <v>0.7799999999999955</v>
       </c>
       <c r="E10" t="n">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
@@ -6035,19 +6669,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.02000000000001</v>
+        <v>-1.400000000000006</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.204000000000002</v>
+        <v>-0.2800000000000011</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.62</v>
+        <v>-0.8500000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.12</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="12">
@@ -6057,19 +6691,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.6999999999999886</v>
+        <v>-0.6200000000000045</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1399999999999977</v>
+        <v>-0.1240000000000009</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4499999999999998</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="13">
@@ -6079,19 +6713,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.09499999999999886</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03199999999999932</v>
+        <v>0.01899999999999977</v>
       </c>
       <c r="E13" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
@@ -6123,19 +6757,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.400000000000091</v>
+        <v>7.200000000000045</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1.280000000000018</v>
+        <v>1.440000000000009</v>
       </c>
       <c r="E15" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
@@ -6167,19 +6801,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2400000000000091</v>
+        <v>-0.1800000000000068</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06000000000000227</v>
+        <v>-0.04500000000000171</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09999999999999998</v>
+        <v>-0.09000000000000002</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18">
@@ -6211,16 +6845,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.6500000000000057</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1499999999999986</v>
+        <v>0.1625000000000014</v>
       </c>
       <c r="E19" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0.12</v>
@@ -6233,19 +6867,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.239999999999981</v>
+        <v>-2.759999999999991</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.7466666666666603</v>
+        <v>-0.9199999999999969</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.78</v>
+        <v>-2.18</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.59</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="21">
